--- a/Metadata for Exemplar Sensors.xlsx
+++ b/Metadata for Exemplar Sensors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunho/NIEHS R24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leelasowmya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC833C0-60AB-9047-BBB6-050770CBAD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C83698-1009-3446-9DEF-512E54E4FF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{42BE29AE-76A3-E64B-AFED-32EF4911661A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="9" xr2:uid="{42BE29AE-76A3-E64B-AFED-32EF4911661A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="SampleCollection" sheetId="7" r:id="rId8"/>
     <sheet name="ValidationInstrument" sheetId="9" r:id="rId9"/>
     <sheet name="Description" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="InstrumentIDs">OFFSET(Instrument!$A$2, 0, 0, COUNTA(Instrument!$A:$A)-1)</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="592">
   <si>
     <t>Description</t>
   </si>
@@ -1646,15 +1645,9 @@
     <t>Microprocessor</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>I0003</t>
   </si>
   <si>
-    <t>S0008</t>
-  </si>
-  <si>
     <t>Biacore-1-series-SPR-systems-data-file-CY29857-10Oct24-DF</t>
   </si>
   <si>
@@ -2019,6 +2012,9 @@
   </si>
   <si>
     <t>fde6a9a205274d9a86ffacda00bc29a9</t>
+  </si>
+  <si>
+    <t>document_description</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2179,13 +2175,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2524,7 +2523,7 @@
   <dimension ref="A1:AM197"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2695,10 +2694,10 @@
         <v>419</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U3" t="s">
         <v>402</v>
@@ -2719,7 +2718,7 @@
         <v>387</v>
       </c>
       <c r="I4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U4" t="s">
         <v>388</v>
@@ -2740,10 +2739,10 @@
         <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U5" t="s">
         <v>388</v>
@@ -2755,7 +2754,7 @@
         <v>I0005</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C6">
         <v>407730</v>
@@ -2764,10 +2763,10 @@
         <v>419</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="102" x14ac:dyDescent="0.2">
@@ -2776,19 +2775,19 @@
         <v>I0006</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E7" t="s">
         <v>419</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="U7" t="s">
         <v>402</v>
@@ -2800,7 +2799,7 @@
         <v>I0007</v>
       </c>
       <c r="B8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C8">
         <v>1099351</v>
@@ -2809,10 +2808,10 @@
         <v>419</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U8" t="s">
         <v>402</v>
@@ -2824,19 +2823,19 @@
         <v>I0008</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E9" t="s">
         <v>419</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="U9" t="s">
         <v>388</v>
@@ -3991,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAE556F-F3A6-3548-909F-61AA12C31E21}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -4004,7 +4003,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4018,7 +4017,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
@@ -4030,7 +4029,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
@@ -4042,7 +4041,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -4054,7 +4053,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4066,7 +4065,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4077,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4090,7 +4089,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4102,7 +4101,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4111,7 +4110,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4123,7 +4122,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4135,7 +4134,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4147,7 +4146,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4159,7 +4158,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4171,7 +4170,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4182,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4194,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,7 +4206,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4219,7 +4218,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4230,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4243,7 +4242,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4255,7 +4254,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4267,7 +4266,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4278,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4291,7 +4290,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4303,7 +4302,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4314,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4327,7 +4326,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4339,7 +4338,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4351,7 +4350,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4363,7 +4362,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4375,7 +4374,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4387,7 +4386,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4399,7 +4398,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
@@ -4411,7 +4410,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -4423,7 +4422,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -4435,7 +4434,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4446,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4458,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -4471,7 +4470,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -4483,7 +4482,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>375</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4497,7 +4496,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -4509,7 +4508,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="12" t="s">
         <v>2</v>
       </c>
@@ -4521,7 +4520,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="12" t="s">
         <v>6</v>
       </c>
@@ -4533,7 +4532,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="4" t="s">
         <v>376</v>
       </c>
@@ -4545,7 +4544,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +4556,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
@@ -4569,7 +4568,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
@@ -4581,7 +4580,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="4" t="s">
         <v>143</v>
       </c>
@@ -4593,7 +4592,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="4" t="s">
         <v>12</v>
       </c>
@@ -4605,7 +4604,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
@@ -4617,7 +4616,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>14</v>
       </c>
@@ -4629,7 +4628,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4640,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="4" t="s">
         <v>16</v>
       </c>
@@ -4653,7 +4652,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="4" t="s">
         <v>17</v>
       </c>
@@ -4665,7 +4664,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +4676,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>19</v>
       </c>
@@ -4689,7 +4688,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>20</v>
       </c>
@@ -4701,7 +4700,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="4" t="s">
         <v>21</v>
       </c>
@@ -4713,7 +4712,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="4" t="s">
         <v>22</v>
       </c>
@@ -4725,7 +4724,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="4" t="s">
         <v>23</v>
       </c>
@@ -4737,7 +4736,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="4" t="s">
         <v>24</v>
       </c>
@@ -4749,7 +4748,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="4" t="s">
         <v>25</v>
       </c>
@@ -4761,7 +4760,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="4" t="s">
         <v>26</v>
       </c>
@@ -4773,7 +4772,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="4" t="s">
         <v>27</v>
       </c>
@@ -4785,7 +4784,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="4" t="s">
         <v>28</v>
       </c>
@@ -4797,7 +4796,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="4" t="s">
         <v>29</v>
       </c>
@@ -4809,7 +4808,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="4" t="s">
         <v>30</v>
       </c>
@@ -4821,7 +4820,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
         <v>31</v>
       </c>
@@ -4833,7 +4832,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="4" t="s">
         <v>32</v>
       </c>
@@ -4845,7 +4844,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
         <v>33</v>
       </c>
@@ -4857,7 +4856,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="4" t="s">
         <v>34</v>
       </c>
@@ -4869,7 +4868,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="4" t="s">
         <v>35</v>
       </c>
@@ -4881,7 +4880,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="4" t="s">
         <v>36</v>
       </c>
@@ -4893,7 +4892,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>37</v>
       </c>
@@ -4905,7 +4904,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="4" t="s">
         <v>38</v>
       </c>
@@ -4917,7 +4916,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
         <v>39</v>
       </c>
@@ -4929,7 +4928,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
@@ -4941,7 +4940,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
         <v>41</v>
       </c>
@@ -4953,7 +4952,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
         <v>42</v>
       </c>
@@ -4965,7 +4964,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -4979,7 +4978,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="18" t="s">
         <v>378</v>
       </c>
@@ -4991,7 +4990,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="1" t="s">
         <v>144</v>
       </c>
@@ -5003,7 +5002,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="1" t="s">
         <v>145</v>
       </c>
@@ -5015,7 +5014,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="1" t="s">
         <v>146</v>
       </c>
@@ -5027,7 +5026,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="1" t="s">
         <v>147</v>
       </c>
@@ -5039,7 +5038,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="1" t="s">
         <v>148</v>
       </c>
@@ -5051,7 +5050,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="1" t="s">
         <v>149</v>
       </c>
@@ -5063,7 +5062,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="1" t="s">
         <v>150</v>
       </c>
@@ -5075,7 +5074,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="1" t="s">
         <v>151</v>
       </c>
@@ -5087,7 +5086,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="21"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
@@ -5099,7 +5098,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="1" t="s">
         <v>153</v>
       </c>
@@ -5111,7 +5110,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="1" t="s">
         <v>154</v>
       </c>
@@ -5123,7 +5122,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="1" t="s">
         <v>155</v>
       </c>
@@ -5135,7 +5134,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="1" t="s">
         <v>156</v>
       </c>
@@ -5147,7 +5146,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="1" t="s">
         <v>157</v>
       </c>
@@ -5159,7 +5158,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="22" t="s">
         <v>190</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -5173,7 +5172,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="19" t="s">
         <v>380</v>
       </c>
@@ -5185,7 +5184,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
+      <c r="A99" s="22"/>
       <c r="B99" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5196,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="13" t="s">
         <v>185</v>
       </c>
@@ -5209,7 +5208,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
+      <c r="A101" s="22"/>
       <c r="B101" t="s">
         <v>186</v>
       </c>
@@ -5221,7 +5220,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="22" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -5235,7 +5234,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="21"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="18" t="s">
         <v>379</v>
       </c>
@@ -5247,7 +5246,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="13" t="s">
         <v>194</v>
       </c>
@@ -5259,7 +5258,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="21"/>
+      <c r="A105" s="22"/>
       <c r="B105" t="s">
         <v>195</v>
       </c>
@@ -5271,7 +5270,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="21"/>
+      <c r="A106" s="22"/>
       <c r="B106" t="s">
         <v>196</v>
       </c>
@@ -5283,7 +5282,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="21"/>
+      <c r="A107" s="22"/>
       <c r="B107" t="s">
         <v>197</v>
       </c>
@@ -5295,7 +5294,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="21"/>
+      <c r="A108" s="22"/>
       <c r="B108" t="s">
         <v>198</v>
       </c>
@@ -5307,7 +5306,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="21"/>
+      <c r="A109" s="22"/>
       <c r="B109" t="s">
         <v>199</v>
       </c>
@@ -5319,7 +5318,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
+      <c r="A110" s="22"/>
       <c r="B110" t="s">
         <v>200</v>
       </c>
@@ -5331,7 +5330,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="21"/>
+      <c r="A111" s="22"/>
       <c r="B111" t="s">
         <v>201</v>
       </c>
@@ -5343,7 +5342,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A112" s="21"/>
+      <c r="A112" s="22"/>
       <c r="B112" t="s">
         <v>202</v>
       </c>
@@ -5355,7 +5354,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A113" s="21"/>
+      <c r="A113" s="22"/>
       <c r="B113" t="s">
         <v>203</v>
       </c>
@@ -5367,7 +5366,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="21"/>
+      <c r="A114" s="22"/>
       <c r="B114" t="s">
         <v>204</v>
       </c>
@@ -5379,7 +5378,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
+      <c r="A115" s="22"/>
       <c r="B115" t="s">
         <v>205</v>
       </c>
@@ -5391,7 +5390,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="21"/>
+      <c r="A116" s="22"/>
       <c r="B116" t="s">
         <v>206</v>
       </c>
@@ -5403,7 +5402,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="21"/>
+      <c r="A117" s="22"/>
       <c r="B117" t="s">
         <v>207</v>
       </c>
@@ -5415,7 +5414,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="22" t="s">
         <v>262</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -5429,7 +5428,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="21"/>
+      <c r="A119" s="22"/>
       <c r="B119" s="18" t="s">
         <v>384</v>
       </c>
@@ -5441,7 +5440,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
+      <c r="A120" s="22"/>
       <c r="B120" s="13" t="s">
         <v>237</v>
       </c>
@@ -5453,7 +5452,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="21"/>
+      <c r="A121" s="22"/>
       <c r="B121" t="s">
         <v>238</v>
       </c>
@@ -5465,7 +5464,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="21"/>
+      <c r="A122" s="22"/>
       <c r="B122" t="s">
         <v>239</v>
       </c>
@@ -5477,7 +5476,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="21"/>
+      <c r="A123" s="22"/>
       <c r="B123" t="s">
         <v>240</v>
       </c>
@@ -5489,7 +5488,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="21"/>
+      <c r="A124" s="22"/>
       <c r="B124" t="s">
         <v>241</v>
       </c>
@@ -5501,7 +5500,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
+      <c r="A125" s="22"/>
       <c r="B125" t="s">
         <v>242</v>
       </c>
@@ -5513,7 +5512,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="21"/>
+      <c r="A126" s="22"/>
       <c r="B126" t="s">
         <v>243</v>
       </c>
@@ -5525,7 +5524,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="21"/>
+      <c r="A127" s="22"/>
       <c r="B127" t="s">
         <v>244</v>
       </c>
@@ -5537,7 +5536,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="21"/>
+      <c r="A128" s="22"/>
       <c r="B128" t="s">
         <v>245</v>
       </c>
@@ -5549,7 +5548,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="21"/>
+      <c r="A129" s="22"/>
       <c r="B129" t="s">
         <v>246</v>
       </c>
@@ -5561,7 +5560,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
+      <c r="A130" s="22"/>
       <c r="B130" t="s">
         <v>247</v>
       </c>
@@ -5573,7 +5572,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="21"/>
+      <c r="A131" s="22"/>
       <c r="B131" t="s">
         <v>248</v>
       </c>
@@ -5585,7 +5584,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="21"/>
+      <c r="A132" s="22"/>
       <c r="B132" t="s">
         <v>249</v>
       </c>
@@ -5597,7 +5596,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="21"/>
+      <c r="A133" s="22"/>
       <c r="B133" t="s">
         <v>250</v>
       </c>
@@ -5609,7 +5608,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="21"/>
+      <c r="A134" s="22"/>
       <c r="B134" t="s">
         <v>251</v>
       </c>
@@ -5621,7 +5620,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="21"/>
+      <c r="A135" s="22"/>
       <c r="B135" t="s">
         <v>252</v>
       </c>
@@ -5633,7 +5632,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
+      <c r="A136" s="22"/>
       <c r="B136" t="s">
         <v>253</v>
       </c>
@@ -5645,7 +5644,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="21"/>
+      <c r="A137" s="22"/>
       <c r="B137" t="s">
         <v>254</v>
       </c>
@@ -5657,7 +5656,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="21"/>
+      <c r="A138" s="22"/>
       <c r="B138" t="s">
         <v>255</v>
       </c>
@@ -5669,7 +5668,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="21"/>
+      <c r="A139" s="22"/>
       <c r="B139" t="s">
         <v>256</v>
       </c>
@@ -5681,7 +5680,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="21"/>
+      <c r="A140" s="22"/>
       <c r="B140" t="s">
         <v>257</v>
       </c>
@@ -5693,7 +5692,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
+      <c r="A141" s="22"/>
       <c r="B141" t="s">
         <v>258</v>
       </c>
@@ -5705,7 +5704,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="21"/>
+      <c r="A142" s="22"/>
       <c r="B142" t="s">
         <v>259</v>
       </c>
@@ -5717,7 +5716,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="21"/>
+      <c r="A143" s="22"/>
       <c r="B143" t="s">
         <v>260</v>
       </c>
@@ -5726,7 +5725,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="21"/>
+      <c r="A144" s="22"/>
       <c r="B144" t="s">
         <v>261</v>
       </c>
@@ -5738,7 +5737,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="22" t="s">
         <v>312</v>
       </c>
       <c r="B145" t="s">
@@ -5752,7 +5751,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
+      <c r="A146" s="22"/>
       <c r="B146" s="18" t="s">
         <v>381</v>
       </c>
@@ -5764,7 +5763,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="21"/>
+      <c r="A147" s="22"/>
       <c r="B147" t="s">
         <v>114</v>
       </c>
@@ -5776,7 +5775,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="21"/>
+      <c r="A148" s="22"/>
       <c r="B148" s="13" t="s">
         <v>305</v>
       </c>
@@ -5788,7 +5787,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="21"/>
+      <c r="A149" s="22"/>
       <c r="B149" t="s">
         <v>306</v>
       </c>
@@ -5800,7 +5799,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="21"/>
+      <c r="A150" s="22"/>
       <c r="B150" t="s">
         <v>246</v>
       </c>
@@ -5812,7 +5811,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
+      <c r="A151" s="22"/>
       <c r="B151" t="s">
         <v>247</v>
       </c>
@@ -5824,7 +5823,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="21"/>
+      <c r="A152" s="22"/>
       <c r="B152" t="s">
         <v>248</v>
       </c>
@@ -5836,7 +5835,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="21"/>
+      <c r="A153" s="22"/>
       <c r="B153" t="s">
         <v>249</v>
       </c>
@@ -5848,7 +5847,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="21"/>
+      <c r="A154" s="22"/>
       <c r="B154" t="s">
         <v>250</v>
       </c>
@@ -5860,7 +5859,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="21"/>
+      <c r="A155" s="22"/>
       <c r="B155" t="s">
         <v>251</v>
       </c>
@@ -5872,7 +5871,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
+      <c r="A156" s="22"/>
       <c r="B156" t="s">
         <v>252</v>
       </c>
@@ -5884,7 +5883,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="21"/>
+      <c r="A157" s="22"/>
       <c r="B157" t="s">
         <v>253</v>
       </c>
@@ -5896,7 +5895,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="21"/>
+      <c r="A158" s="22"/>
       <c r="B158" t="s">
         <v>254</v>
       </c>
@@ -5908,7 +5907,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="21"/>
+      <c r="A159" s="22"/>
       <c r="B159" t="s">
         <v>255</v>
       </c>
@@ -5920,7 +5919,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="21"/>
+      <c r="A160" s="22"/>
       <c r="B160" t="s">
         <v>311</v>
       </c>
@@ -5932,7 +5931,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="21"/>
+      <c r="A161" s="22"/>
       <c r="B161" t="s">
         <v>307</v>
       </c>
@@ -5944,7 +5943,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
+      <c r="A162" s="22"/>
       <c r="B162" t="s">
         <v>308</v>
       </c>
@@ -5956,7 +5955,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="21"/>
+      <c r="A163" s="22"/>
       <c r="B163" t="s">
         <v>309</v>
       </c>
@@ -5968,7 +5967,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A164" s="21"/>
+      <c r="A164" s="22"/>
       <c r="B164" t="s">
         <v>310</v>
       </c>
@@ -5980,7 +5979,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B165" t="s">
@@ -5994,7 +5993,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" s="21"/>
+      <c r="A166" s="22"/>
       <c r="B166" t="s">
         <v>114</v>
       </c>
@@ -6006,7 +6005,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
+      <c r="A167" s="22"/>
       <c r="B167" s="16" t="s">
         <v>382</v>
       </c>
@@ -6018,7 +6017,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="21"/>
+      <c r="A168" s="22"/>
       <c r="B168" s="13" t="s">
         <v>334</v>
       </c>
@@ -6030,7 +6029,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" s="21"/>
+      <c r="A169" s="22"/>
       <c r="B169" t="s">
         <v>335</v>
       </c>
@@ -6042,7 +6041,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="21"/>
+      <c r="A170" s="22"/>
       <c r="B170" t="s">
         <v>336</v>
       </c>
@@ -6054,7 +6053,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A171" s="21"/>
+      <c r="A171" s="22"/>
       <c r="B171" t="s">
         <v>337</v>
       </c>
@@ -6066,7 +6065,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
+      <c r="A172" s="22"/>
       <c r="B172" t="s">
         <v>338</v>
       </c>
@@ -6078,7 +6077,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="21"/>
+      <c r="A173" s="22"/>
       <c r="B173" t="s">
         <v>339</v>
       </c>
@@ -6090,7 +6089,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="21"/>
+      <c r="A174" s="22"/>
       <c r="B174" t="s">
         <v>340</v>
       </c>
@@ -6102,7 +6101,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="22" t="s">
         <v>356</v>
       </c>
       <c r="B175" s="13" t="s">
@@ -6116,7 +6115,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="21"/>
+      <c r="A176" s="22"/>
       <c r="B176" s="18" t="s">
         <v>383</v>
       </c>
@@ -6128,7 +6127,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
+      <c r="A177" s="22"/>
       <c r="B177" t="s">
         <v>357</v>
       </c>
@@ -6140,7 +6139,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A178" s="21"/>
+      <c r="A178" s="22"/>
       <c r="B178" t="s">
         <v>358</v>
       </c>
@@ -6152,7 +6151,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="21"/>
+      <c r="A179" s="22"/>
       <c r="B179" t="s">
         <v>359</v>
       </c>
@@ -6164,7 +6163,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="21"/>
+      <c r="A180" s="22"/>
       <c r="B180" t="s">
         <v>360</v>
       </c>
@@ -6176,7 +6175,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="21"/>
+      <c r="A181" s="22"/>
       <c r="B181" t="s">
         <v>361</v>
       </c>
@@ -6188,7 +6187,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
+      <c r="A182" s="22"/>
       <c r="B182" t="s">
         <v>362</v>
       </c>
@@ -6231,27 +6230,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A7C42-2D48-774E-A5C6-E5762F4D7B51}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B133D9BD-32D0-174A-9D2A-C1139ECAD72A}">
-  <dimension ref="A1:P200"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6343,7 +6328,7 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"", "DT" &amp; TEXT(ROW(B3)-1, "0000"), "")</f>
+        <f t="shared" ref="A3:A63" si="0">IF(B3&lt;&gt;"", "DT" &amp; TEXT(ROW(B3)-1, "0000"), "")</f>
         <v>DT0002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6362,7 +6347,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6371,7 +6356,10 @@
         <v>DT0004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6380,7 +6368,10 @@
         <v>DT0005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6389,10 +6380,10 @@
         <v>DT0006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6401,10 +6392,10 @@
         <v>DT0007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6413,10 +6404,10 @@
         <v>DT0008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6425,7 +6416,7 @@
         <v>DT0009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>512</v>
@@ -6434,34 +6425,19 @@
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DT0010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>513</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DT0011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DT0012</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>515</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -6766,25 +6742,25 @@
     </row>
     <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A64:A127" si="1">IF(B64&lt;&gt;"", "DT" &amp; TEXT(ROW(B64)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;"", "DT" &amp; TEXT(ROW(B67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7150,25 +7126,25 @@
     </row>
     <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A128:A191" si="2">IF(B128&lt;&gt;"", "DT" &amp; TEXT(ROW(B128)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;"", "DT" &amp; TEXT(ROW(B131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7534,25 +7510,25 @@
     </row>
     <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A192:A197" si="3">IF(B192&lt;&gt;"", "DT" &amp; TEXT(ROW(B192)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:A200" si="3">IF(B195&lt;&gt;"", "DT" &amp; TEXT(ROW(B195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7564,24 +7540,6 @@
     </row>
     <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7602,10 +7560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C3FDEC-9964-F143-94E9-F66DC741FF72}">
-  <dimension ref="A1:AN338"/>
+  <dimension ref="A1:AN337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7792,7 +7750,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A66" si="0">IF(B4&lt;&gt;"", "S" &amp; TEXT(ROW(B4)-1, "0000"), "")</f>
+        <f t="shared" ref="A4:A65" si="0">IF(B4&lt;&gt;"", "S" &amp; TEXT(ROW(B4)-1, "0000"), "")</f>
         <v>S0003</v>
       </c>
       <c r="B4" t="s">
@@ -7850,14 +7808,11 @@
         <v>S0005</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
         <v>113</v>
       </c>
-      <c r="D6" t="s">
-        <v>468</v>
-      </c>
       <c r="E6" t="s">
         <v>402</v>
       </c>
@@ -7874,14 +7829,11 @@
         <v>S0006</v>
       </c>
       <c r="B7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" t="s">
-        <v>468</v>
-      </c>
       <c r="E7" t="s">
         <v>388</v>
       </c>
@@ -7898,14 +7850,11 @@
         <v>S0007</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
-        <v>468</v>
-      </c>
       <c r="E8" t="s">
         <v>388</v>
       </c>
@@ -7922,19 +7871,19 @@
         <v>S0008</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>564</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
-      </c>
-      <c r="D9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
         <v>402</v>
       </c>
       <c r="G9" t="s">
-        <v>387</v>
+        <v>419</v>
+      </c>
+      <c r="V9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -7943,13 +7892,10 @@
         <v>S0009</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
-      </c>
-      <c r="D10" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E10" t="s">
         <v>402</v>
@@ -7967,23 +7913,17 @@
         <v>S0010</v>
       </c>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>490</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D11" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G11" t="s">
         <v>419</v>
       </c>
-      <c r="V11" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
@@ -7991,13 +7931,10 @@
         <v>S0011</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D12" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
         <v>388</v>
@@ -8012,13 +7949,10 @@
         <v>S0012</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D13" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s">
         <v>388</v>
@@ -8033,16 +7967,13 @@
         <v>S0013</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G14" t="s">
         <v>419</v>
@@ -8054,16 +7985,13 @@
         <v>S0014</v>
       </c>
       <c r="B15" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
         <v>419</v>
@@ -8075,13 +8003,10 @@
         <v>S0015</v>
       </c>
       <c r="B16" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E16" t="s">
         <v>388</v>
@@ -8096,16 +8021,16 @@
         <v>S0016</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C17" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G17" t="s">
         <v>419</v>
@@ -8117,13 +8042,13 @@
         <v>S0017</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E18" t="s">
         <v>402</v>
@@ -8138,13 +8063,13 @@
         <v>S0018</v>
       </c>
       <c r="B19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E19" t="s">
         <v>402</v>
@@ -8159,13 +8084,13 @@
         <v>S0019</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E20" t="s">
         <v>402</v>
@@ -8180,13 +8105,13 @@
         <v>S0020</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E21" t="s">
         <v>402</v>
@@ -8201,13 +8126,13 @@
         <v>S0021</v>
       </c>
       <c r="B22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E22" t="s">
         <v>402</v>
@@ -8222,13 +8147,10 @@
         <v>S0022</v>
       </c>
       <c r="B23" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="C23" t="s">
-        <v>577</v>
-      </c>
-      <c r="D23" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E23" t="s">
         <v>402</v>
@@ -8236,20 +8158,20 @@
       <c r="G23" t="s">
         <v>419</v>
       </c>
+      <c r="V23" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>S0023</v>
       </c>
-      <c r="B24" t="s">
-        <v>586</v>
+      <c r="B24" s="21" t="s">
+        <v>585</v>
       </c>
       <c r="C24" t="s">
-        <v>515</v>
-      </c>
-      <c r="D24" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
         <v>402</v>
@@ -8264,25 +8186,7 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>S0024</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="C25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D25" t="s">
-        <v>468</v>
-      </c>
-      <c r="E25" t="s">
-        <v>402</v>
-      </c>
-      <c r="G25" t="s">
-        <v>419</v>
-      </c>
-      <c r="V25" t="s">
-        <v>402</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -8527,13 +8431,13 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A66:A129" si="1">IF(B66&lt;&gt;"", "S" &amp; TEXT(ROW(B66)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;"", "S" &amp; TEXT(ROW(B67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8911,13 +8815,13 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A130:A193" si="2">IF(B130&lt;&gt;"", "S" &amp; TEXT(ROW(B130)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;"", "S" &amp; TEXT(ROW(B131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9295,13 +9199,13 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A194:A257" si="3">IF(B194&lt;&gt;"", "S" &amp; TEXT(ROW(B194)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;"", "S" &amp; TEXT(ROW(B195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9679,13 +9583,13 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A258:A321" si="4">IF(B258&lt;&gt;"", "S" &amp; TEXT(ROW(B258)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">IF(B259&lt;&gt;"", "S" &amp; TEXT(ROW(B259)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -10063,13 +9967,13 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A322:A337" si="5">IF(B322&lt;&gt;"", "S" &amp; TEXT(ROW(B322)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A338" si="5">IF(B323&lt;&gt;"", "S" &amp; TEXT(ROW(B323)-1, "0000"), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10157,21 +10061,15 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:X200 AC1:AC200 AG1:AG200 E1:E1048576" xr:uid="{FF8E6987-0C8C-3D41-A64D-5576D43F7E99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 AG1:AG199 AC1:AC199 U1:X199" xr:uid="{FF8E6987-0C8C-3D41-A64D-5576D43F7E99}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T200" xr:uid="{F2ADA8C0-195A-4B47-9C50-7DC20774CAEE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T199" xr:uid="{F2ADA8C0-195A-4B47-9C50-7DC20774CAEE}">
       <formula1>"Indoor,Outdoor,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G200" xr:uid="{8C5F379D-9E91-FD48-82B3-99A39A1E191C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G199" xr:uid="{8C5F379D-9E91-FD48-82B3-99A39A1E191C}">
       <formula1>"Mobile,Fixed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A2F4A8B9-D12B-C842-B3A2-4C0EB118C0A0}">
@@ -10185,10 +10083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DECC2-B650-C744-81CC-1942A6223A61}">
-  <dimension ref="A1:P526"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10274,7 +10172,7 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(C3&lt;&gt;"", "M" &amp; TEXT(ROW(C3)-1, "0000"), "")</f>
+        <f t="shared" ref="A3:A65" si="0">IF(C3&lt;&gt;"", "M" &amp; TEXT(ROW(C3)-1, "0000"), "")</f>
         <v>M0002</v>
       </c>
       <c r="B3" t="s">
@@ -10428,13 +10326,13 @@
         <v>M0012</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>565</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>468</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -10443,13 +10341,13 @@
         <v>M0013</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>568</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -10458,13 +10356,13 @@
         <v>M0014</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -10473,13 +10371,13 @@
         <v>M0015</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10488,13 +10386,13 @@
         <v>M0016</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10503,13 +10401,13 @@
         <v>M0017</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10518,13 +10416,13 @@
         <v>M0018</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10533,43 +10431,43 @@
         <v>M0019</v>
       </c>
       <c r="B20" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>M0020</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>M0021</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C22" t="s">
-        <v>536</v>
+        <v>409</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10578,43 +10476,43 @@
         <v>M0022</v>
       </c>
       <c r="B23" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>M0023</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>535</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>M0024</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C25" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10623,13 +10521,13 @@
         <v>M0025</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10638,13 +10536,13 @@
         <v>M0026</v>
       </c>
       <c r="B27" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C27" t="s">
-        <v>538</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10653,13 +10551,13 @@
         <v>M0027</v>
       </c>
       <c r="B28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>534</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10668,13 +10566,13 @@
         <v>M0028</v>
       </c>
       <c r="B29" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="C29" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -10683,28 +10581,19 @@
         <v>M0029</v>
       </c>
       <c r="B30" t="s">
+        <v>587</v>
+      </c>
+      <c r="C30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>M0030</v>
-      </c>
-      <c r="B31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C31" t="s">
-        <v>457</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>590</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -10913,13 +10802,13 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A66:A129" si="1">IF(C66&lt;&gt;"", "M" &amp; TEXT(ROW(C66)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(C67&lt;&gt;"", "M" &amp; TEXT(ROW(C67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -11297,13 +11186,13 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A130:A193" si="2">IF(C130&lt;&gt;"", "M" &amp; TEXT(ROW(C130)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(C131&lt;&gt;"", "M" &amp; TEXT(ROW(C131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11681,13 +11570,13 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A194:A257" si="3">IF(C194&lt;&gt;"", "M" &amp; TEXT(ROW(C194)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(C195&lt;&gt;"", "M" &amp; TEXT(ROW(C195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -12065,13 +11954,13 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A258:A321" si="4">IF(C258&lt;&gt;"", "M" &amp; TEXT(ROW(C258)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">IF(C259&lt;&gt;"", "M" &amp; TEXT(ROW(C259)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -12449,13 +12338,13 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A322:A385" si="5">IF(C322&lt;&gt;"", "M" &amp; TEXT(ROW(C322)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">IF(C323&lt;&gt;"", "M" &amp; TEXT(ROW(C323)-1, "0000"), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12833,13 +12722,13 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A386:A449" si="6">IF(C386&lt;&gt;"", "M" &amp; TEXT(ROW(C386)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">IF(C387&lt;&gt;"", "M" &amp; TEXT(ROW(C387)-1, "0000"), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -13217,13 +13106,13 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A450:A513" si="7">IF(C450&lt;&gt;"", "M" &amp; TEXT(ROW(C450)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A514" si="7">IF(C451&lt;&gt;"", "M" &amp; TEXT(ROW(C451)-1, "0000"), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13601,13 +13490,13 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A514:A525" si="8">IF(C514&lt;&gt;"", "M" &amp; TEXT(ROW(C514)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="str">
-        <f t="shared" ref="A515:A526" si="8">IF(C515&lt;&gt;"", "M" &amp; TEXT(ROW(C515)-1, "0000"), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -13667,12 +13556,6 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -13690,10 +13573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA361FD4-7969-1F46-BD45-6EB3E9CAEF77}">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13737,7 +13620,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(D3&lt;&gt;"", "INV" &amp; TEXT(ROW(D3)-1, "0000"), "")</f>
+        <f t="shared" ref="A3:A46" si="0">IF(D3&lt;&gt;"", "INV" &amp; TEXT(ROW(D3)-1, "0000"), "")</f>
         <v>INV0002</v>
       </c>
       <c r="B3" t="s">
@@ -13810,334 +13693,154 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>INV0006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>INV0007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>INV0008</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>INV0009</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>INV0010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>INV0011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>479</v>
-      </c>
-      <c r="C12" t="s">
-        <v>483</v>
-      </c>
-      <c r="D12" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>INV0012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" t="s">
-        <v>495</v>
-      </c>
-      <c r="D13" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>INV0013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D14" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>INV0014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>487</v>
-      </c>
-      <c r="C15" t="s">
-        <v>497</v>
-      </c>
-      <c r="D15" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>INV0015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C16" t="s">
-        <v>498</v>
-      </c>
-      <c r="D16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>INV0016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>INV0017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" t="s">
-        <v>508</v>
-      </c>
-      <c r="D18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>INV0018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C19" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>INV0019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>577</v>
-      </c>
-      <c r="C20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>INV0020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>577</v>
-      </c>
-      <c r="C21" t="s">
-        <v>529</v>
-      </c>
-      <c r="D21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>INV0021</v>
-      </c>
-      <c r="B22" t="s">
-        <v>577</v>
-      </c>
-      <c r="C22" t="s">
-        <v>530</v>
-      </c>
-      <c r="D22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>INV0022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>577</v>
-      </c>
-      <c r="C23" t="s">
-        <v>531</v>
-      </c>
-      <c r="D23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>INV0023</v>
-      </c>
-      <c r="B24" t="s">
-        <v>577</v>
-      </c>
-      <c r="C24" t="s">
-        <v>532</v>
-      </c>
-      <c r="D24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>INV0024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>INV0025</v>
-      </c>
-      <c r="B26" t="s">
-        <v>515</v>
-      </c>
-      <c r="C26" t="s">
-        <v>589</v>
-      </c>
-      <c r="D26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14229,127 +13932,127 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A47:A110" si="1">IF(D47&lt;&gt;"", "INV" &amp; TEXT(ROW(D47)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(D67&lt;&gt;"", "INV" &amp; TEXT(ROW(D67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -14613,127 +14316,127 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A111:A174" si="2">IF(D111&lt;&gt;"", "INV" &amp; TEXT(ROW(D111)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(D131&lt;&gt;"", "INV" &amp; TEXT(ROW(D131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14997,127 +14700,127 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A175:A238" si="3">IF(D175&lt;&gt;"", "INV" &amp; TEXT(ROW(D175)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(D195&lt;&gt;"", "INV" &amp; TEXT(ROW(D195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15381,127 +15084,127 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A239:A280" si="4">IF(D239&lt;&gt;"", "INV" &amp; TEXT(ROW(D239)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A300" si="4">IF(D259&lt;&gt;"", "INV" &amp; TEXT(ROW(D259)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15627,126 +15330,6 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -15768,10 +15351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE20BEE-F993-DB41-B07B-D55DA5EE6689}">
-  <dimension ref="A1:T496"/>
+  <dimension ref="A1:T487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15868,7 +15451,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(D3&lt;&gt;"", "ORG" &amp; TEXT(ROW(D3)-1, "0000"), "")</f>
+        <f t="shared" ref="A3:A57" si="0">IF(D3&lt;&gt;"", "ORG" &amp; TEXT(ROW(D3)-1, "0000"), "")</f>
         <v>ORG0002</v>
       </c>
       <c r="C3" t="s">
@@ -15935,7 +15518,7 @@
         <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E7" t="s">
         <v>407</v>
@@ -15946,9 +15529,6 @@
         <f t="shared" si="0"/>
         <v>ORG0007</v>
       </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
       <c r="C8" t="s">
         <v>458</v>
       </c>
@@ -15964,9 +15544,6 @@
         <f t="shared" si="0"/>
         <v>ORG0008</v>
       </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
       <c r="C9" t="s">
         <v>459</v>
       </c>
@@ -15983,10 +15560,10 @@
         <v>ORG0009</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
         <v>407</v>
@@ -15998,10 +15575,10 @@
         <v>ORG0010</v>
       </c>
       <c r="B11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" t="s">
         <v>473</v>
-      </c>
-      <c r="D11" t="s">
-        <v>475</v>
       </c>
       <c r="E11" t="s">
         <v>407</v>
@@ -16013,10 +15590,10 @@
         <v>ORG0011</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E12" t="s">
         <v>407</v>
@@ -16028,103 +15605,103 @@
         <v>ORG0012</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A14:A19" si="1">IF(D14&lt;&gt;"", "ORG" &amp; TEXT(ROW(D14)-1, "0000"), "")</f>
         <v>ORG0013</v>
       </c>
-      <c r="B14" t="s">
-        <v>487</v>
-      </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORG0014</v>
       </c>
-      <c r="B15" t="s">
-        <v>487</v>
-      </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
-        <v>468</v>
+        <v>406</v>
+      </c>
+      <c r="E15" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORG0015</v>
       </c>
-      <c r="B16" t="s">
-        <v>487</v>
-      </c>
       <c r="C16" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="D16" t="s">
-        <v>468</v>
+        <v>539</v>
+      </c>
+      <c r="E16" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORG0016</v>
       </c>
-      <c r="B17" t="s">
-        <v>487</v>
-      </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>540</v>
+      </c>
+      <c r="E17" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORG0017</v>
       </c>
-      <c r="B18" t="s">
-        <v>487</v>
-      </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D18" t="s">
-        <v>468</v>
+        <v>541</v>
+      </c>
+      <c r="E18" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORG0018</v>
       </c>
-      <c r="B19" t="s">
-        <v>487</v>
-      </c>
       <c r="C19" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>542</v>
+      </c>
+      <c r="E19" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -16133,162 +15710,67 @@
         <v>ORG0019</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
-      </c>
-      <c r="C20" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>468</v>
+        <v>537</v>
+      </c>
+      <c r="E20" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>ORG0020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" t="s">
-        <v>588</v>
-      </c>
-      <c r="D21" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>515</v>
-      </c>
-      <c r="D22" t="s">
-        <v>575</v>
-      </c>
-      <c r="E22" t="s">
-        <v>407</v>
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" ref="A17:A28" si="1">IF(D23&lt;&gt;"", "ORG" &amp; TEXT(ROW(D23)-1, "0000"), "")</f>
-        <v>ORG0022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>577</v>
-      </c>
-      <c r="C23" t="s">
-        <v>528</v>
-      </c>
-      <c r="D23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E23" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>ORG0023</v>
-      </c>
-      <c r="B24" t="s">
-        <v>577</v>
-      </c>
-      <c r="C24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E24" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>ORG0024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" t="s">
-        <v>541</v>
-      </c>
-      <c r="E25" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>ORG0025</v>
-      </c>
-      <c r="B26" t="s">
-        <v>577</v>
-      </c>
-      <c r="C26" t="s">
-        <v>530</v>
-      </c>
-      <c r="D26" t="s">
-        <v>542</v>
-      </c>
-      <c r="E26" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>ORG0026</v>
-      </c>
-      <c r="B27" t="s">
-        <v>577</v>
-      </c>
-      <c r="C27" t="s">
-        <v>531</v>
-      </c>
-      <c r="D27" t="s">
-        <v>543</v>
-      </c>
-      <c r="E27" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
-        <v>ORG0027</v>
-      </c>
-      <c r="B28" t="s">
-        <v>577</v>
-      </c>
-      <c r="C28" t="s">
-        <v>532</v>
-      </c>
-      <c r="D28" t="s">
-        <v>544</v>
-      </c>
-      <c r="E28" t="s">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>ORG0028</v>
-      </c>
-      <c r="B29" t="s">
-        <v>577</v>
-      </c>
-      <c r="D29" t="s">
-        <v>539</v>
-      </c>
-      <c r="E29" t="s">
-        <v>407</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -16461,61 +15943,61 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A58:A121" si="2">IF(D58&lt;&gt;"", "ORG" &amp; TEXT(ROW(D58)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="2">IF(D67&lt;&gt;"", "ORG" &amp; TEXT(ROW(D67)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -16845,61 +16327,61 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A122:A185" si="3">IF(D122&lt;&gt;"", "ORG" &amp; TEXT(ROW(D122)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="3">IF(D131&lt;&gt;"", "ORG" &amp; TEXT(ROW(D131)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17229,61 +16711,61 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A186:A249" si="4">IF(D186&lt;&gt;"", "ORG" &amp; TEXT(ROW(D186)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="4">IF(D195&lt;&gt;"", "ORG" &amp; TEXT(ROW(D195)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17613,61 +17095,61 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A250:A313" si="5">IF(D250&lt;&gt;"", "ORG" &amp; TEXT(ROW(D250)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="5">IF(D259&lt;&gt;"", "ORG" &amp; TEXT(ROW(D259)-1, "0000"), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17997,61 +17479,61 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A314:A377" si="6">IF(D314&lt;&gt;"", "ORG" &amp; TEXT(ROW(D314)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="6">IF(D323&lt;&gt;"", "ORG" &amp; TEXT(ROW(D323)-1, "0000"), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -18381,61 +17863,61 @@
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A378:A441" si="7">IF(D378&lt;&gt;"", "ORG" &amp; TEXT(ROW(D378)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="7">IF(D387&lt;&gt;"", "ORG" &amp; TEXT(ROW(D387)-1, "0000"), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -18765,61 +18247,61 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A442:A487" si="8">IF(D442&lt;&gt;"", "ORG" &amp; TEXT(ROW(D442)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A496" si="8">IF(D451&lt;&gt;"", "ORG" &amp; TEXT(ROW(D451)-1, "0000"), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -19035,60 +18517,6 @@
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -19109,10 +18537,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D9140E-C8C7-9346-8020-5E5AE776171A}">
-  <dimension ref="A1:J389"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19120,15 +18548,16 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>382</v>
       </c>
@@ -19141,26 +18570,29 @@
       <c r="D1" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(D2&lt;&gt;"", "D" &amp; TEXT(ROW(D2)-1, "0000"), "")</f>
         <v>D0001</v>
@@ -19171,17 +18603,17 @@
       <c r="D2" t="s">
         <v>398</v>
       </c>
-      <c r="F2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H2" t="s">
-        <v>545</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="G2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(D3&lt;&gt;"", "D" &amp; TEXT(ROW(D3)-1, "0000"), "")</f>
         <v>D0002</v>
@@ -19190,217 +18622,217 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I3" t="s">
+        <v>543</v>
+      </c>
+      <c r="K3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>D0003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" t="s">
+        <v>543</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>D0004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" t="s">
+        <v>556</v>
+      </c>
+      <c r="I5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>D0005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" t="s">
         <v>546</v>
       </c>
-      <c r="E3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H3" t="s">
-        <v>545</v>
-      </c>
-      <c r="J3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>D0003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>D0004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="F6" t="s">
+        <v>567</v>
+      </c>
+      <c r="G6" t="s">
+        <v>556</v>
+      </c>
+      <c r="I6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>D0006</v>
+      </c>
+      <c r="B7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>D0005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E6" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" t="s">
-        <v>558</v>
-      </c>
-      <c r="H6" t="s">
-        <v>545</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>D0006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
       <c r="D7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="F7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H7" t="s">
-        <v>545</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="G7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>D0007</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
-        <v>511</v>
-      </c>
-      <c r="E8" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="F8" t="s">
-        <v>558</v>
-      </c>
-      <c r="H8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="G8" t="s">
+        <v>556</v>
+      </c>
+      <c r="I8" t="s">
+        <v>543</v>
+      </c>
+      <c r="K8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>D0008</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>592</v>
-      </c>
-      <c r="E9" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="F9" t="s">
-        <v>558</v>
-      </c>
-      <c r="H9" t="s">
-        <v>545</v>
-      </c>
-      <c r="J9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="G9" t="s">
+        <v>556</v>
+      </c>
+      <c r="I9" t="s">
+        <v>543</v>
+      </c>
+      <c r="K9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>D0009</v>
       </c>
       <c r="B10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D10" t="s">
         <v>577</v>
       </c>
-      <c r="D10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E10" t="s">
-        <v>569</v>
-      </c>
       <c r="F10" t="s">
-        <v>558</v>
-      </c>
-      <c r="H10" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="G10" t="s">
+        <v>556</v>
+      </c>
+      <c r="I10" t="s">
+        <v>543</v>
+      </c>
+      <c r="K10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -21654,11 +21086,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{0BBA2BA5-B066-8C4B-B131-5080E45AD74D}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{316FF295-90E2-6140-8847-A93E44385D16}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{09AF5A90-DFBF-404B-9596-A9C19B9EC0B2}"/>
-    <hyperlink ref="J6" r:id="rId4" location="Documents" xr:uid="{14BC9751-005A-D34E-9B89-9EB34FF419EB}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{C4A72B8D-726D-B945-9381-7BB9473962D7}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{0BBA2BA5-B066-8C4B-B131-5080E45AD74D}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{316FF295-90E2-6140-8847-A93E44385D16}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{09AF5A90-DFBF-404B-9596-A9C19B9EC0B2}"/>
+    <hyperlink ref="K6" r:id="rId4" location="Documents" xr:uid="{14BC9751-005A-D34E-9B89-9EB34FF419EB}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{C4A72B8D-726D-B945-9381-7BB9473962D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -21667,10 +21099,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA77E3-F966-FC48-9882-3F24A79CCB2D}">
-  <dimension ref="A1:H817"/>
+  <dimension ref="A1:H803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21726,7 +21158,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"", "SC" &amp; TEXT(ROW(B3)-1, "0000"), "")</f>
+        <f t="shared" ref="A3:A52" si="0">IF(B3&lt;&gt;"", "SC" &amp; TEXT(ROW(B3)-1, "0000"), "")</f>
         <v>SC0002</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -21742,7 +21174,10 @@
         <v>SC0003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>433</v>
+        <v>456</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21751,7 +21186,10 @@
         <v>SC0004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>526</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21760,10 +21198,10 @@
         <v>SC0005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21772,10 +21210,10 @@
         <v>SC0006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21784,10 +21222,10 @@
         <v>SC0007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21796,10 +21234,10 @@
         <v>SC0008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -21808,220 +21246,139 @@
         <v>SC0009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>483</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0012</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0013</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0014</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0017</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0018</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0019</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0020</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0021</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0022</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SC0023</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -22149,91 +21506,91 @@
     </row>
     <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A53:A116" si="1">IF(B53&lt;&gt;"", "SC" &amp; TEXT(ROW(B53)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(B67&lt;&gt;"", "SC" &amp; TEXT(ROW(B67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -22533,91 +21890,91 @@
     </row>
     <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A117:A180" si="2">IF(B117&lt;&gt;"", "SC" &amp; TEXT(ROW(B117)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(B131&lt;&gt;"", "SC" &amp; TEXT(ROW(B131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -22917,91 +22274,91 @@
     </row>
     <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A181:A244" si="3">IF(B181&lt;&gt;"", "SC" &amp; TEXT(ROW(B181)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(B195&lt;&gt;"", "SC" &amp; TEXT(ROW(B195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -23301,91 +22658,91 @@
     </row>
     <row r="245" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A245:A308" si="4">IF(B245&lt;&gt;"", "SC" &amp; TEXT(ROW(B245)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f t="shared" ref="A259:A322" si="4">IF(B259&lt;&gt;"", "SC" &amp; TEXT(ROW(B259)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -23685,91 +23042,91 @@
     </row>
     <row r="309" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A309:A372" si="5">IF(B309&lt;&gt;"", "SC" &amp; TEXT(ROW(B309)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="str">
-        <f t="shared" ref="A323:A386" si="5">IF(B323&lt;&gt;"", "SC" &amp; TEXT(ROW(B323)-1, "0000"), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -24069,91 +23426,91 @@
     </row>
     <row r="373" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A373:A436" si="6">IF(B373&lt;&gt;"", "SC" &amp; TEXT(ROW(B373)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="str">
-        <f t="shared" ref="A387:A450" si="6">IF(B387&lt;&gt;"", "SC" &amp; TEXT(ROW(B387)-1, "0000"), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -24453,91 +23810,91 @@
     </row>
     <row r="437" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A437:A500" si="7">IF(B437&lt;&gt;"", "SC" &amp; TEXT(ROW(B437)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="str">
-        <f t="shared" ref="A451:A514" si="7">IF(B451&lt;&gt;"", "SC" &amp; TEXT(ROW(B451)-1, "0000"), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -24837,91 +24194,91 @@
     </row>
     <row r="501" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A501:A564" si="8">IF(B501&lt;&gt;"", "SC" &amp; TEXT(ROW(B501)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="str">
-        <f t="shared" ref="A515:A578" si="8">IF(B515&lt;&gt;"", "SC" &amp; TEXT(ROW(B515)-1, "0000"), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -25221,91 +24578,91 @@
     </row>
     <row r="565" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A565:A628" si="9">IF(B565&lt;&gt;"", "SC" &amp; TEXT(ROW(B565)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="566" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="567" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="568" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="569" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="str">
-        <f t="shared" ref="A579:A642" si="9">IF(B579&lt;&gt;"", "SC" &amp; TEXT(ROW(B579)-1, "0000"), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -25605,91 +24962,91 @@
     </row>
     <row r="629" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A629:A692" si="10">IF(B629&lt;&gt;"", "SC" &amp; TEXT(ROW(B629)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="630" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="631" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="632" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="633" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="643" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="str">
-        <f t="shared" ref="A643:A706" si="10">IF(B643&lt;&gt;"", "SC" &amp; TEXT(ROW(B643)-1, "0000"), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -25989,91 +25346,91 @@
     </row>
     <row r="693" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A693:A756" si="11">IF(B693&lt;&gt;"", "SC" &amp; TEXT(ROW(B693)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="694" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="695" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="696" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="697" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="707" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="str">
-        <f t="shared" ref="A707:A770" si="11">IF(B707&lt;&gt;"", "SC" &amp; TEXT(ROW(B707)-1, "0000"), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -26373,91 +25730,91 @@
     </row>
     <row r="757" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A757:A803" si="12">IF(B757&lt;&gt;"", "SC" &amp; TEXT(ROW(B757)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="758" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="759" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="760" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="761" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="762" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="763" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="764" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="766" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="767" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="768" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="769" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="770" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="771" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="str">
-        <f t="shared" ref="A771:A817" si="12">IF(B771&lt;&gt;"", "SC" &amp; TEXT(ROW(B771)-1, "0000"), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -26649,90 +26006,6 @@
     </row>
     <row r="803" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="804" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A804" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="805" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A805" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="806" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A806" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="807" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A807" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="808" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A808" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="809" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A809" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="810" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A810" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="811" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A811" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="812" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A812" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="813" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A813" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="814" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A814" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="815" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A815" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="816" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A816" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="817" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A817" s="1" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -26754,10 +26027,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB77FE-47B1-CE4D-A5B6-5B18BA8601FD}">
-  <dimension ref="A1:AA563"/>
+  <dimension ref="A1:AA542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26886,305 +26159,179 @@
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(C3&lt;&gt;"", "V" &amp; TEXT(ROW(C3)-1, "0000"), "")</f>
-        <v>V0002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>468</v>
+        <f t="shared" ref="A3:A45" si="0">IF(C3&lt;&gt;"", "V" &amp; TEXT(ROW(C3)-1, "0000"), "")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0005</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0007</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0008</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0009</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0011</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0012</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0013</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0014</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>468</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0015</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0017</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0018</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0019</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0020</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0021</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>V0022</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -27270,133 +26417,133 @@
     </row>
     <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A46:A109" si="1">IF(C46&lt;&gt;"", "V" &amp; TEXT(ROW(C46)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(C67&lt;&gt;"", "V" &amp; TEXT(ROW(C67)-1, "0000"), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -27654,133 +26801,133 @@
     </row>
     <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A110:A173" si="2">IF(C110&lt;&gt;"", "V" &amp; TEXT(ROW(C110)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(C131&lt;&gt;"", "V" &amp; TEXT(ROW(C131)-1, "0000"), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -28038,133 +27185,133 @@
     </row>
     <row r="174" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A174:A237" si="3">IF(C174&lt;&gt;"", "V" &amp; TEXT(ROW(C174)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(C195&lt;&gt;"", "V" &amp; TEXT(ROW(C195)-1, "0000"), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -28422,133 +27569,133 @@
     </row>
     <row r="238" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A238:A301" si="4">IF(C238&lt;&gt;"", "V" &amp; TEXT(ROW(C238)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f t="shared" ref="A259:A322" si="4">IF(C259&lt;&gt;"", "V" &amp; TEXT(ROW(C259)-1, "0000"), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -28806,133 +27953,133 @@
     </row>
     <row r="302" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A302:A365" si="5">IF(C302&lt;&gt;"", "V" &amp; TEXT(ROW(C302)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="str">
-        <f t="shared" ref="A323:A386" si="5">IF(C323&lt;&gt;"", "V" &amp; TEXT(ROW(C323)-1, "0000"), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -29190,133 +28337,133 @@
     </row>
     <row r="366" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A366:A429" si="6">IF(C366&lt;&gt;"", "V" &amp; TEXT(ROW(C366)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="str">
-        <f t="shared" ref="A387:A450" si="6">IF(C387&lt;&gt;"", "V" &amp; TEXT(ROW(C387)-1, "0000"), "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -29574,133 +28721,133 @@
     </row>
     <row r="430" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A430:A493" si="7">IF(C430&lt;&gt;"", "V" &amp; TEXT(ROW(C430)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="431" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="str">
-        <f t="shared" ref="A451:A514" si="7">IF(C451&lt;&gt;"", "V" &amp; TEXT(ROW(C451)-1, "0000"), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -29958,133 +29105,133 @@
     </row>
     <row r="494" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A494:A542" si="8">IF(C494&lt;&gt;"", "V" &amp; TEXT(ROW(C494)-1, "0000"), "")</f>
         <v/>
       </c>
     </row>
     <row r="495" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="str">
-        <f t="shared" ref="A515:A563" si="8">IF(C515&lt;&gt;"", "V" &amp; TEXT(ROW(C515)-1, "0000"), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -30246,132 +29393,6 @@
     </row>
     <row r="542" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="543" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A543" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="544" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A544" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="545" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A545" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="546" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A546" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="547" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A547" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="548" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A548" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="549" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="550" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="551" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A551" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="552" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="553" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A553" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="554" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A554" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="555" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A555" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="556" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A556" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="557" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="558" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="559" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="560" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A560" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="561" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A561" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="562" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A562" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="563" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A563" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
